--- a/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Nuble.xlsx
+++ b/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Nuble.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="Rb2a4c8ff1f0444af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R9dd7b59cad6247d9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -234,6 +234,546 @@
     </x:row>
     <x:row r="4">
       <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46160</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2081704.4756499</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>18102591.432</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50809.176811</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46428</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2015776.2572154</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16110170.117187</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52044.987722</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>46783</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2038928.4409721</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14497128.097744</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57024.704748</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2070439.013494</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13797354.948148</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>55954.101131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47358</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2285232.7359474</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14729263.148148</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>57493.174753</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>47828</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2273053.4139416</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14950762.625</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59737.281988</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48246</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2201518.9556439</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9650000.4927536</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>59519.057701</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>48736</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2164976.8780778</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9745533.3714285</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>63849.324772</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49092</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2169277.8624419</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9185208.0357142</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>65237.894262</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49559</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2118374.9948546</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10494164.935714</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>61135.451145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>49988</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2071974.9345643</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10818102.366906</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>64123.758469</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50600</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2116498.4579051</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8838295.7241379</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>60909.456888</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>50946</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2116380.0662858</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8558201.0680272</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>63968.128026999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51143</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2122997.4600238</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9279552.7248322</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>64612.681257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51314</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2183966.6062673</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10644746.6</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>69356.825935</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51587</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2190126.9910636</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11867948.815789</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>71705.741782</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51733</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2366502.5614404</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13351531.076433</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>73210.853954</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51869</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2387998.6100561</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11097064.490797</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>75735.997657</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51808</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2496531.4760847</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10738512.825301</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>86888.035258</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51823</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2742874.7586013</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>16290071.377907</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91999.653427</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>51893</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2971798.1986202</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15296816.046242</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>90305.722351</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52066</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3058891.0203203</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14549090.101694</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>99231.89643</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52256</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3214355.4516419</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>15332235</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>172930.8846</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52445</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3521764.5205262</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13722888.706521</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>174024.247263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>52773</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3623745.5599075</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11905771.668421</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>160882.197197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53121</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3567764.5514768</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12667853.113402</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>146903.297939</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>53481</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3653013.1572521</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12310696.645</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>213092.804615</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
         <x:v>2021-01-01T00:00:00.000</x:v>
       </x:c>
       <x:c s="11" t="n">
@@ -252,7 +792,7 @@
         <x:v>201984.286583</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="32">
       <x:c s="5" t="d">
         <x:v>2021-02-01T00:00:00.000</x:v>
       </x:c>
@@ -272,7 +812,7 @@
         <x:v>195792.063198</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="33">
       <x:c s="5" t="d">
         <x:v>2021-03-01T00:00:00.000</x:v>
       </x:c>
@@ -292,7 +832,7 @@
         <x:v>192000.603638</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="34">
       <x:c s="5" t="d">
         <x:v>2021-04-01T00:00:00.000</x:v>
       </x:c>
@@ -312,7 +852,7 @@
         <x:v>197316.885571</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="35">
       <x:c s="5" t="d">
         <x:v>2021-05-01T00:00:00.000</x:v>
       </x:c>
@@ -332,7 +872,7 @@
         <x:v>252479.093535</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="36">
       <x:c s="5" t="d">
         <x:v>2021-06-01T00:00:00.000</x:v>
       </x:c>
@@ -352,7 +892,7 @@
         <x:v>239772.964696</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="37">
       <x:c s="5" t="d">
         <x:v>2021-07-01T00:00:00.000</x:v>
       </x:c>
@@ -372,7 +912,7 @@
         <x:v>242350.779545</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="38">
       <x:c s="5" t="d">
         <x:v>2021-08-01T00:00:00.000</x:v>
       </x:c>
@@ -392,7 +932,7 @@
         <x:v>235505.6546</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="39">
       <x:c s="5" t="d">
         <x:v>2021-09-01T00:00:00.000</x:v>
       </x:c>
@@ -412,7 +952,7 @@
         <x:v>232277.92481</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="40">
       <x:c s="5" t="d">
         <x:v>2021-10-01T00:00:00.000</x:v>
       </x:c>
@@ -432,7 +972,7 @@
         <x:v>226017.435281</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="41">
       <x:c s="5" t="d">
         <x:v>2021-11-01T00:00:00.000</x:v>
       </x:c>
@@ -452,7 +992,7 @@
         <x:v>216700.555355</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="42">
       <x:c s="5" t="d">
         <x:v>2021-12-01T00:00:00.000</x:v>
       </x:c>
@@ -472,7 +1012,7 @@
         <x:v>223049.630489</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="43">
       <x:c s="5" t="d">
         <x:v>2022-01-01T00:00:00.000</x:v>
       </x:c>
@@ -492,7 +1032,7 @@
         <x:v>208166.242193</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="44">
       <x:c s="5" t="d">
         <x:v>2022-02-01T00:00:00.000</x:v>
       </x:c>
@@ -512,7 +1052,7 @@
         <x:v>200694.318483</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="45">
       <x:c s="5" t="d">
         <x:v>2022-03-01T00:00:00.000</x:v>
       </x:c>
@@ -532,7 +1072,7 @@
         <x:v>189740.594088</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="46">
       <x:c s="5" t="d">
         <x:v>2022-04-01T00:00:00.000</x:v>
       </x:c>
@@ -552,7 +1092,7 @@
         <x:v>185224.936666</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="47">
       <x:c s="5" t="d">
         <x:v>2022-05-01T00:00:00.000</x:v>
       </x:c>
@@ -572,7 +1112,7 @@
         <x:v>175793.392789</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="48">
       <x:c s="5" t="d">
         <x:v>2022-06-01T00:00:00.000</x:v>
       </x:c>
@@ -592,7 +1132,7 @@
         <x:v>171259.256546</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="49">
       <x:c s="5" t="d">
         <x:v>2022-07-01T00:00:00.000</x:v>
       </x:c>
@@ -612,7 +1152,7 @@
         <x:v>164145.548336</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="50">
       <x:c s="5" t="d">
         <x:v>2022-08-01T00:00:00.000</x:v>
       </x:c>
@@ -632,7 +1172,7 @@
         <x:v>159917.434341</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="51">
       <x:c s="5" t="d">
         <x:v>2022-09-01T00:00:00.000</x:v>
       </x:c>
@@ -652,7 +1192,7 @@
         <x:v>158476.369047</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="52">
       <x:c s="5" t="d">
         <x:v>2022-10-01T00:00:00.000</x:v>
       </x:c>
@@ -672,7 +1212,7 @@
         <x:v>153798.475348</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="53">
       <x:c s="5" t="d">
         <x:v>2022-11-01T00:00:00.000</x:v>
       </x:c>
@@ -692,7 +1232,7 @@
         <x:v>145494.463493</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="54">
       <x:c s="5" t="d">
         <x:v>2022-12-01T00:00:00.000</x:v>
       </x:c>
@@ -712,7 +1252,7 @@
         <x:v>152256.158022</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="55">
       <x:c s="5" t="d">
         <x:v>2023-01-01T00:00:00.000</x:v>
       </x:c>
@@ -732,7 +1272,7 @@
         <x:v>147855.975446</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="56">
       <x:c s="5" t="d">
         <x:v>2023-02-01T00:00:00.000</x:v>
       </x:c>
@@ -752,7 +1292,7 @@
         <x:v>146887.583851</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="57">
       <x:c s="5" t="d">
         <x:v>2023-03-01T00:00:00.000</x:v>
       </x:c>
@@ -772,7 +1312,7 @@
         <x:v>146164.430628</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="58">
       <x:c s="5" t="d">
         <x:v>2023-04-01T00:00:00.000</x:v>
       </x:c>
@@ -792,7 +1332,7 @@
         <x:v>148693.242387</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="59">
       <x:c s="5" t="d">
         <x:v>2023-05-01T00:00:00.000</x:v>
       </x:c>
@@ -812,7 +1352,7 @@
         <x:v>142118.239051</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="60">
       <x:c s="5" t="d">
         <x:v>2023-06-01T00:00:00.000</x:v>
       </x:c>
@@ -832,7 +1372,7 @@
         <x:v>144139.949195</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="61">
       <x:c s="5" t="d">
         <x:v>2023-07-01T00:00:00.000</x:v>
       </x:c>
@@ -852,7 +1392,7 @@
         <x:v>135780.848761</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="62">
       <x:c s="5" t="d">
         <x:v>2023-08-01T00:00:00.000</x:v>
       </x:c>
@@ -872,7 +1412,7 @@
         <x:v>136360.718043</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="63">
       <x:c s="5" t="d">
         <x:v>2023-09-01T00:00:00.000</x:v>
       </x:c>
@@ -892,7 +1432,7 @@
         <x:v>139490.220577</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="64">
       <x:c s="5" t="d">
         <x:v>2023-10-01T00:00:00.000</x:v>
       </x:c>
@@ -912,7 +1452,7 @@
         <x:v>133353.755273</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="65">
       <x:c s="5" t="d">
         <x:v>2023-11-01T00:00:00.000</x:v>
       </x:c>
@@ -932,7 +1472,7 @@
         <x:v>133946.943083</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="66">
       <x:c s="5" t="d">
         <x:v>2023-12-01T00:00:00.000</x:v>
       </x:c>
@@ -952,7 +1492,7 @@
         <x:v>142774.786606</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="67">
       <x:c s="5" t="d">
         <x:v>2024-01-01T00:00:00.000</x:v>
       </x:c>
@@ -972,7 +1512,7 @@
         <x:v>141217.608451</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="68">
       <x:c s="5" t="d">
         <x:v>2024-02-01T00:00:00.000</x:v>
       </x:c>
@@ -992,7 +1532,7 @@
         <x:v>142601.231425</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="69">
       <x:c s="5" t="d">
         <x:v>2024-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1012,7 +1552,7 @@
         <x:v>142301.023114</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="70">
       <x:c s="5" t="d">
         <x:v>2024-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1032,7 +1572,7 @@
         <x:v>140075.773283</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="71">
       <x:c s="5" t="d">
         <x:v>2024-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1052,7 +1592,7 @@
         <x:v>143794.269842</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="72">
       <x:c s="5" t="d">
         <x:v>2024-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1072,7 +1612,7 @@
         <x:v>143778.345543</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="73">
       <x:c s="5" t="d">
         <x:v>2024-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1092,7 +1632,7 @@
         <x:v>138684.201106</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="74">
       <x:c s="5" t="d">
         <x:v>2024-08-01T00:00:00.000</x:v>
       </x:c>
